--- a/data/case1/15/Plm2_2.xlsx
+++ b/data/case1/15/Plm2_2.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.33884106152275706</v>
+        <v>-0.41337446758495844</v>
       </c>
       <c r="B1" s="0">
-        <v>0.3379601264303318</v>
+        <v>0.41205435375782429</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.23399507152208443</v>
+        <v>-0.29411097458942415</v>
       </c>
       <c r="B2" s="0">
-        <v>0.23171915758150341</v>
+        <v>0.29040247242211592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.11856492176814015</v>
+        <v>-0.18744822605405176</v>
       </c>
       <c r="B3" s="0">
-        <v>0.11808707578675737</v>
+        <v>0.18621969439606545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.10608707583205756</v>
+        <v>-0.1742196945736918</v>
       </c>
       <c r="B4" s="0">
-        <v>0.10568519804012411</v>
+        <v>0.17309765719354608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.099685198211670212</v>
+        <v>-0.16709765785917874</v>
       </c>
       <c r="B5" s="0">
-        <v>0.098907754492064903</v>
+        <v>0.16482943307342435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.10942159525219974</v>
+        <v>-0.10946791955228719</v>
       </c>
       <c r="B6" s="0">
-        <v>0.10923955111413086</v>
+        <v>0.10928060926347127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.089239551321872668</v>
+        <v>-0.08928061007912369</v>
       </c>
       <c r="B7" s="0">
-        <v>0.088780022568823114</v>
+        <v>0.088808559704981249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.068780022779157513</v>
+        <v>-0.068808560529618923</v>
       </c>
       <c r="B8" s="0">
-        <v>0.068382909615066545</v>
+        <v>0.06839987191282848</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.062382909796376396</v>
+        <v>-0.062399872623450037</v>
       </c>
       <c r="B9" s="0">
-        <v>0.062044721833961702</v>
+        <v>0.062051863753144865</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056044722018043558</v>
+        <v>-0.05605186447363053</v>
       </c>
       <c r="B10" s="0">
-        <v>0.055993915224703983</v>
+        <v>0.056004254364793837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051493915405281143</v>
+        <v>-0.051504255072600813</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051411162634551033</v>
+        <v>0.051421532328575381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045411162819380735</v>
+        <v>-0.045421533052270036</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045157946188870479</v>
+        <v>0.045160657750289435</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039157946376592534</v>
+        <v>-0.039160658484325594</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039088848396009901</v>
+        <v>0.039089854533770563</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027088848598387116</v>
+        <v>-0.027089855324580192</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027055226396768717</v>
+        <v>0.027055913722102254</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021055226586098819</v>
+        <v>-0.021055914461619807</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021028742572688053</v>
+        <v>0.021029223434584132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015028742762670522</v>
+        <v>-0.015029224176228206</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004820030066979</v>
+        <v>0.015004426336773902</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090048202208956596</v>
+        <v>-0.0090044270813143257</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999998020813265</v>
+        <v>0.0089999992280036523</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.093965055081223881</v>
+        <v>-0.10794337983039526</v>
       </c>
       <c r="B18" s="0">
-        <v>0.093846023818546342</v>
+        <v>0.10779366460029038</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.084846023989706421</v>
+        <v>-0.027097038229953352</v>
       </c>
       <c r="B19" s="0">
-        <v>0.083933272909276102</v>
+        <v>0.02701347497041473</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.074933273085724394</v>
+        <v>-0.018013475631425635</v>
       </c>
       <c r="B20" s="0">
-        <v>0.074732693596341271</v>
+        <v>0.018004284326163855</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.065732693773989492</v>
+        <v>-0.0090042849879781173</v>
       </c>
       <c r="B21" s="0">
-        <v>0.065458775778069356</v>
+        <v>0.0089999993376146392</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.10415423598854723</v>
+        <v>-0.093954247041962091</v>
       </c>
       <c r="B22" s="0">
-        <v>0.10376340465913714</v>
+        <v>0.093639429859102563</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084636498025708384</v>
+        <v>-0.084639430538945071</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127328814381563</v>
+        <v>0.084127709199825595</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127329069789887</v>
+        <v>-0.042127710184800549</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999743118188</v>
+        <v>0.041999999009869171</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.016513840585307804</v>
+        <v>-0.049361514208630553</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.016518124668831291</v>
+        <v>0.04928083071254008</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.038704204114257124</v>
+        <v>-0.043280831401173003</v>
       </c>
       <c r="B26" s="0">
-        <v>0.038629531797646166</v>
+        <v>0.043180052098691135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.032629531972826253</v>
+        <v>-0.037180052788942763</v>
       </c>
       <c r="B27" s="0">
-        <v>0.032394214372276409</v>
+        <v>0.036845034918436159</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.026394214548914441</v>
+        <v>-0.030845035614800231</v>
       </c>
       <c r="B28" s="0">
-        <v>0.026244601722224203</v>
+        <v>0.030625943096981523</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.014244601913443233</v>
+        <v>-0.018625943850585358</v>
       </c>
       <c r="B29" s="0">
-        <v>0.014187354867488011</v>
+        <v>0.01853559455513043</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.005812644922715382</v>
+        <v>0.0014644046186296222</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.0058449394750863526</v>
+        <v>-0.0014748694150199526</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019848425046789</v>
+        <v>-0.040745076930313928</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000977123156744</v>
+        <v>0.040692608080318493</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060009773353257856</v>
+        <v>-0.019692608916892063</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999998220900963</v>
+        <v>0.019675579393311438</v>
       </c>
     </row>
   </sheetData>
